--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.25725833333333</v>
+        <v>10.70240133333333</v>
       </c>
       <c r="H2">
-        <v>33.771775</v>
+        <v>32.107204</v>
       </c>
       <c r="I2">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="J2">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130725</v>
+        <v>0.1033963333333333</v>
       </c>
       <c r="N2">
-        <v>0.3921749999999999</v>
+        <v>0.310189</v>
       </c>
       <c r="O2">
-        <v>0.1184385768344502</v>
+        <v>0.0818371535912535</v>
       </c>
       <c r="P2">
-        <v>0.1184385768344502</v>
+        <v>0.08183715359125351</v>
       </c>
       <c r="Q2">
-        <v>1.471605095625</v>
+        <v>1.106589055728445</v>
       </c>
       <c r="R2">
-        <v>13.244445860625</v>
+        <v>9.959301501556</v>
       </c>
       <c r="S2">
-        <v>0.01436884389667192</v>
+        <v>0.01432020583381464</v>
       </c>
       <c r="T2">
-        <v>0.01436884389667192</v>
+        <v>0.01432020583381465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.25725833333333</v>
+        <v>10.70240133333333</v>
       </c>
       <c r="H3">
-        <v>33.771775</v>
+        <v>32.107204</v>
       </c>
       <c r="I3">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="J3">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.182355</v>
       </c>
       <c r="O3">
-        <v>0.6590808193983468</v>
+        <v>0.5757706473332067</v>
       </c>
       <c r="P3">
-        <v>0.6590808193983468</v>
+        <v>0.5757706473332068</v>
       </c>
       <c r="Q3">
-        <v>8.189111336680556</v>
+        <v>7.78547968726889</v>
       </c>
       <c r="R3">
-        <v>73.702002030125</v>
+        <v>70.06931718542002</v>
       </c>
       <c r="S3">
-        <v>0.07995899361795492</v>
+        <v>0.1007507448763643</v>
       </c>
       <c r="T3">
-        <v>0.07995899361795489</v>
+        <v>0.1007507448763643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.25725833333333</v>
+        <v>10.70240133333333</v>
       </c>
       <c r="H4">
-        <v>33.771775</v>
+        <v>32.107204</v>
       </c>
       <c r="I4">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="J4">
-        <v>0.1213189509762199</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24556</v>
+        <v>0.000222</v>
       </c>
       <c r="N4">
-        <v>0.7366800000000001</v>
+        <v>0.000666</v>
       </c>
       <c r="O4">
-        <v>0.2224806037672029</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="P4">
-        <v>0.2224806037672029</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="Q4">
-        <v>2.764332356333334</v>
+        <v>0.002375933096</v>
       </c>
       <c r="R4">
-        <v>24.878991207</v>
+        <v>0.021383397864</v>
       </c>
       <c r="S4">
-        <v>0.0269911134615931</v>
+        <v>3.074659992881938E-05</v>
       </c>
       <c r="T4">
-        <v>0.0269911134615931</v>
+        <v>3.074659992881938E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.645164</v>
+        <v>10.70240133333333</v>
       </c>
       <c r="H5">
-        <v>55.935492</v>
+        <v>32.107204</v>
       </c>
       <c r="I5">
-        <v>0.2009380677142005</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="J5">
-        <v>0.2009380677142004</v>
+        <v>0.1749841631264304</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.130725</v>
+        <v>0.43237</v>
       </c>
       <c r="N5">
-        <v>0.3921749999999999</v>
+        <v>1.29711</v>
       </c>
       <c r="O5">
-        <v>0.1184385768344502</v>
+        <v>0.342216488317609</v>
       </c>
       <c r="P5">
-        <v>0.1184385768344502</v>
+        <v>0.3422164883176091</v>
       </c>
       <c r="Q5">
-        <v>2.437389063899999</v>
+        <v>4.627397264493333</v>
       </c>
       <c r="R5">
-        <v>21.9365015751</v>
+        <v>41.64657538044001</v>
       </c>
       <c r="S5">
-        <v>0.02379881877193429</v>
+        <v>0.05988246581632267</v>
       </c>
       <c r="T5">
-        <v>0.02379881877193429</v>
+        <v>0.05988246581632268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>55.935492</v>
       </c>
       <c r="I6">
-        <v>0.2009380677142005</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="J6">
-        <v>0.2009380677142004</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7274516666666667</v>
+        <v>0.1033963333333333</v>
       </c>
       <c r="N6">
-        <v>2.182355</v>
+        <v>0.310189</v>
       </c>
       <c r="O6">
-        <v>0.6590808193983468</v>
+        <v>0.0818371535912535</v>
       </c>
       <c r="P6">
-        <v>0.6590808193983468</v>
+        <v>0.08183715359125351</v>
       </c>
       <c r="Q6">
-        <v>13.56345562707333</v>
+        <v>1.927841591998666</v>
       </c>
       <c r="R6">
-        <v>122.07110064366</v>
+        <v>17.350574327988</v>
       </c>
       <c r="S6">
-        <v>0.1324344263173957</v>
+        <v>0.02494791383440589</v>
       </c>
       <c r="T6">
-        <v>0.1324344263173957</v>
+        <v>0.02494791383440589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>55.935492</v>
       </c>
       <c r="I7">
-        <v>0.2009380677142005</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="J7">
-        <v>0.2009380677142004</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.24556</v>
+        <v>0.7274516666666667</v>
       </c>
       <c r="N7">
-        <v>0.7366800000000001</v>
+        <v>2.182355</v>
       </c>
       <c r="O7">
-        <v>0.2224806037672029</v>
+        <v>0.5757706473332067</v>
       </c>
       <c r="P7">
-        <v>0.2224806037672029</v>
+        <v>0.5757706473332068</v>
       </c>
       <c r="Q7">
-        <v>4.57850647184</v>
+        <v>13.56345562707333</v>
       </c>
       <c r="R7">
-        <v>41.20655824656</v>
+        <v>122.07110064366</v>
       </c>
       <c r="S7">
-        <v>0.04470482262487042</v>
+        <v>0.1755226797084515</v>
       </c>
       <c r="T7">
-        <v>0.04470482262487042</v>
+        <v>0.1755226797084516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.95867399999999</v>
+        <v>18.645164</v>
       </c>
       <c r="H8">
-        <v>98.87602199999999</v>
+        <v>55.935492</v>
       </c>
       <c r="I8">
-        <v>0.3551941011611514</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="J8">
-        <v>0.3551941011611514</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.130725</v>
+        <v>0.000222</v>
       </c>
       <c r="N8">
-        <v>0.3921749999999999</v>
+        <v>0.000666</v>
       </c>
       <c r="O8">
-        <v>0.1184385768344502</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="P8">
-        <v>0.1184385768344502</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="Q8">
-        <v>4.308522658649999</v>
+        <v>0.004139226407999999</v>
       </c>
       <c r="R8">
-        <v>38.77670392784999</v>
+        <v>0.037253037672</v>
       </c>
       <c r="S8">
-        <v>0.04206868384151851</v>
+        <v>5.356511872991732E-05</v>
       </c>
       <c r="T8">
-        <v>0.0420686838415185</v>
+        <v>5.356511872991733E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.95867399999999</v>
+        <v>18.645164</v>
       </c>
       <c r="H9">
-        <v>98.87602199999999</v>
+        <v>55.935492</v>
       </c>
       <c r="I9">
-        <v>0.3551941011611514</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="J9">
-        <v>0.3551941011611514</v>
+        <v>0.3048482594960664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7274516666666667</v>
+        <v>0.43237</v>
       </c>
       <c r="N9">
-        <v>2.182355</v>
+        <v>1.29711</v>
       </c>
       <c r="O9">
-        <v>0.6590808193983468</v>
+        <v>0.342216488317609</v>
       </c>
       <c r="P9">
-        <v>0.6590808193983468</v>
+        <v>0.3422164883176091</v>
       </c>
       <c r="Q9">
-        <v>23.97584233242333</v>
+        <v>8.061609558679999</v>
       </c>
       <c r="R9">
-        <v>215.78258099181</v>
+        <v>72.55448602812</v>
       </c>
       <c r="S9">
-        <v>0.234101619238751</v>
+        <v>0.1043241008344791</v>
       </c>
       <c r="T9">
-        <v>0.2341016192387509</v>
+        <v>0.1043241008344791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.95867399999999</v>
+        <v>14.50031533333333</v>
       </c>
       <c r="H10">
-        <v>98.87602199999999</v>
+        <v>43.500946</v>
       </c>
       <c r="I10">
-        <v>0.3551941011611514</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="J10">
-        <v>0.3551941011611514</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.24556</v>
+        <v>0.1033963333333333</v>
       </c>
       <c r="N10">
-        <v>0.7366800000000001</v>
+        <v>0.310189</v>
       </c>
       <c r="O10">
-        <v>0.2224806037672029</v>
+        <v>0.0818371535912535</v>
       </c>
       <c r="P10">
-        <v>0.2224806037672029</v>
+        <v>0.08183715359125351</v>
       </c>
       <c r="Q10">
-        <v>8.093331987439999</v>
+        <v>1.499279437643778</v>
       </c>
       <c r="R10">
-        <v>72.83998788696</v>
+        <v>13.493514938794</v>
       </c>
       <c r="S10">
-        <v>0.07902379808088192</v>
+        <v>0.01940195417469723</v>
       </c>
       <c r="T10">
-        <v>0.07902379808088192</v>
+        <v>0.01940195417469724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.953784333333334</v>
+        <v>14.50031533333333</v>
       </c>
       <c r="H11">
-        <v>17.861353</v>
+        <v>43.500946</v>
       </c>
       <c r="I11">
-        <v>0.06416365763943291</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="J11">
-        <v>0.06416365763943289</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.130725</v>
+        <v>0.7274516666666667</v>
       </c>
       <c r="N11">
-        <v>0.3921749999999999</v>
+        <v>2.182355</v>
       </c>
       <c r="O11">
-        <v>0.1184385768344502</v>
+        <v>0.5757706473332067</v>
       </c>
       <c r="P11">
-        <v>0.1184385768344502</v>
+        <v>0.5757706473332068</v>
       </c>
       <c r="Q11">
-        <v>0.778308456975</v>
+        <v>10.54827855642556</v>
       </c>
       <c r="R11">
-        <v>7.004776112775</v>
+        <v>94.93450700783001</v>
       </c>
       <c r="S11">
-        <v>0.007599452295307333</v>
+        <v>0.1365037177428</v>
       </c>
       <c r="T11">
-        <v>0.007599452295307331</v>
+        <v>0.1365037177428</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.953784333333334</v>
+        <v>14.50031533333333</v>
       </c>
       <c r="H12">
-        <v>17.861353</v>
+        <v>43.500946</v>
       </c>
       <c r="I12">
-        <v>0.06416365763943291</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="J12">
-        <v>0.06416365763943289</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7274516666666667</v>
+        <v>0.000222</v>
       </c>
       <c r="N12">
-        <v>2.182355</v>
+        <v>0.000666</v>
       </c>
       <c r="O12">
-        <v>0.6590808193983468</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="P12">
-        <v>0.6590808193983468</v>
+        <v>0.0001757107579307288</v>
       </c>
       <c r="Q12">
-        <v>4.331090336257223</v>
+        <v>0.003219070004</v>
       </c>
       <c r="R12">
-        <v>38.97981302631501</v>
+        <v>0.028971630036</v>
       </c>
       <c r="S12">
-        <v>0.04228903605259244</v>
+        <v>4.16575103577121E-05</v>
       </c>
       <c r="T12">
-        <v>0.04228903605259243</v>
+        <v>4.16575103577121E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.953784333333334</v>
+        <v>14.50031533333333</v>
       </c>
       <c r="H13">
-        <v>17.861353</v>
+        <v>43.500946</v>
       </c>
       <c r="I13">
-        <v>0.06416365763943291</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="J13">
-        <v>0.06416365763943289</v>
+        <v>0.2370800220105756</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24556</v>
+        <v>0.43237</v>
       </c>
       <c r="N13">
-        <v>0.7366800000000001</v>
+        <v>1.29711</v>
       </c>
       <c r="O13">
-        <v>0.2224806037672029</v>
+        <v>0.342216488317609</v>
       </c>
       <c r="P13">
-        <v>0.2224806037672029</v>
+        <v>0.3422164883176091</v>
       </c>
       <c r="Q13">
-        <v>1.462011280893334</v>
+        <v>6.269501340673333</v>
       </c>
       <c r="R13">
-        <v>13.15810152804</v>
+        <v>56.42551206606</v>
       </c>
       <c r="S13">
-        <v>0.01427516929153314</v>
+        <v>0.08113269258272063</v>
       </c>
       <c r="T13">
-        <v>0.01427516929153313</v>
+        <v>0.08113269258272064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.97572</v>
+        <v>5.766972666666667</v>
       </c>
       <c r="H14">
-        <v>71.92716</v>
+        <v>17.300918</v>
       </c>
       <c r="I14">
-        <v>0.2583852225089954</v>
+        <v>0.09428994992989723</v>
       </c>
       <c r="J14">
-        <v>0.2583852225089954</v>
+        <v>0.09428994992989723</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.130725</v>
+        <v>0.1033963333333333</v>
       </c>
       <c r="N14">
-        <v>0.3921749999999999</v>
+        <v>0.310189</v>
       </c>
       <c r="O14">
-        <v>0.1184385768344502</v>
+        <v>0.0818371535912535</v>
       </c>
       <c r="P14">
-        <v>0.1184385768344502</v>
+        <v>0.08183715359125351</v>
       </c>
       <c r="Q14">
-        <v>3.134225996999999</v>
+        <v>0.5962838281668889</v>
       </c>
       <c r="R14">
-        <v>28.208033973</v>
+        <v>5.366554453501999</v>
       </c>
       <c r="S14">
-        <v>0.03060277802901817</v>
+        <v>0.007716421114524602</v>
       </c>
       <c r="T14">
-        <v>0.03060277802901816</v>
+        <v>0.007716421114524603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.97572</v>
+        <v>5.766972666666667</v>
       </c>
       <c r="H15">
-        <v>71.92716</v>
+        <v>17.300918</v>
       </c>
       <c r="I15">
-        <v>0.2583852225089954</v>
+        <v>0.09428994992989723</v>
       </c>
       <c r="J15">
-        <v>0.2583852225089954</v>
+        <v>0.09428994992989723</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>2.182355</v>
       </c>
       <c r="O15">
-        <v>0.6590808193983468</v>
+        <v>0.5757706473332067</v>
       </c>
       <c r="P15">
-        <v>0.6590808193983468</v>
+        <v>0.5757706473332068</v>
       </c>
       <c r="Q15">
-        <v>17.44117747353333</v>
+        <v>4.195193877987778</v>
       </c>
       <c r="R15">
-        <v>156.9705972618</v>
+        <v>37.75674490189</v>
       </c>
       <c r="S15">
-        <v>0.1702967441716529</v>
+        <v>0.05428938550815258</v>
       </c>
       <c r="T15">
-        <v>0.1702967441716528</v>
+        <v>0.05428938550815259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.766972666666667</v>
+      </c>
+      <c r="H16">
+        <v>17.300918</v>
+      </c>
+      <c r="I16">
+        <v>0.09428994992989723</v>
+      </c>
+      <c r="J16">
+        <v>0.09428994992989723</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.000222</v>
+      </c>
+      <c r="N16">
+        <v>0.000666</v>
+      </c>
+      <c r="O16">
+        <v>0.0001757107579307288</v>
+      </c>
+      <c r="P16">
+        <v>0.0001757107579307288</v>
+      </c>
+      <c r="Q16">
+        <v>0.001280267932</v>
+      </c>
+      <c r="R16">
+        <v>0.011522411388</v>
+      </c>
+      <c r="S16">
+        <v>1.656775856743271E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.656775856743271E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.766972666666667</v>
+      </c>
+      <c r="H17">
+        <v>17.300918</v>
+      </c>
+      <c r="I17">
+        <v>0.09428994992989723</v>
+      </c>
+      <c r="J17">
+        <v>0.09428994992989723</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.43237</v>
+      </c>
+      <c r="N17">
+        <v>1.29711</v>
+      </c>
+      <c r="O17">
+        <v>0.342216488317609</v>
+      </c>
+      <c r="P17">
+        <v>0.3422164883176091</v>
+      </c>
+      <c r="Q17">
+        <v>2.493465971886667</v>
+      </c>
+      <c r="R17">
+        <v>22.44119374698</v>
+      </c>
+      <c r="S17">
+        <v>0.03226757554865262</v>
+      </c>
+      <c r="T17">
+        <v>0.03226757554865262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.54726066666667</v>
+      </c>
+      <c r="H18">
+        <v>34.641782</v>
+      </c>
+      <c r="I18">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="J18">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1033963333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.310189</v>
+      </c>
+      <c r="O18">
+        <v>0.0818371535912535</v>
+      </c>
+      <c r="P18">
+        <v>0.08183715359125351</v>
+      </c>
+      <c r="Q18">
+        <v>1.193944412977555</v>
+      </c>
+      <c r="R18">
+        <v>10.745499716798</v>
+      </c>
+      <c r="S18">
+        <v>0.01545065863381112</v>
+      </c>
+      <c r="T18">
+        <v>0.01545065863381113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.54726066666667</v>
+      </c>
+      <c r="H19">
+        <v>34.641782</v>
+      </c>
+      <c r="I19">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="J19">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7274516666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.182355</v>
+      </c>
+      <c r="O19">
+        <v>0.5757706473332067</v>
+      </c>
+      <c r="P19">
+        <v>0.5757706473332068</v>
+      </c>
+      <c r="Q19">
+        <v>8.400074017401112</v>
+      </c>
+      <c r="R19">
+        <v>75.60066615661</v>
+      </c>
+      <c r="S19">
+        <v>0.1087041194974383</v>
+      </c>
+      <c r="T19">
+        <v>0.1087041194974383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.54726066666667</v>
+      </c>
+      <c r="H20">
+        <v>34.641782</v>
+      </c>
+      <c r="I20">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="J20">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.000222</v>
+      </c>
+      <c r="N20">
+        <v>0.000666</v>
+      </c>
+      <c r="O20">
+        <v>0.0001757107579307288</v>
+      </c>
+      <c r="P20">
+        <v>0.0001757107579307288</v>
+      </c>
+      <c r="Q20">
+        <v>0.002563491868</v>
+      </c>
+      <c r="R20">
+        <v>0.023071426812</v>
+      </c>
+      <c r="S20">
+        <v>3.317377034684727E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.317377034684728E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>23.97572</v>
-      </c>
-      <c r="H16">
-        <v>71.92716</v>
-      </c>
-      <c r="I16">
-        <v>0.2583852225089954</v>
-      </c>
-      <c r="J16">
-        <v>0.2583852225089954</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.24556</v>
-      </c>
-      <c r="N16">
-        <v>0.7366800000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.2224806037672029</v>
-      </c>
-      <c r="P16">
-        <v>0.2224806037672029</v>
-      </c>
-      <c r="Q16">
-        <v>5.8874778032</v>
-      </c>
-      <c r="R16">
-        <v>52.98730022880001</v>
-      </c>
-      <c r="S16">
-        <v>0.05748570030832437</v>
-      </c>
-      <c r="T16">
-        <v>0.05748570030832437</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.54726066666667</v>
+      </c>
+      <c r="H21">
+        <v>34.641782</v>
+      </c>
+      <c r="I21">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="J21">
+        <v>0.1887976054370303</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.43237</v>
+      </c>
+      <c r="N21">
+        <v>1.29711</v>
+      </c>
+      <c r="O21">
+        <v>0.342216488317609</v>
+      </c>
+      <c r="P21">
+        <v>0.3422164883176091</v>
+      </c>
+      <c r="Q21">
+        <v>4.992689094446666</v>
+      </c>
+      <c r="R21">
+        <v>44.93420185002</v>
+      </c>
+      <c r="S21">
+        <v>0.06460965353543403</v>
+      </c>
+      <c r="T21">
+        <v>0.06460965353543405</v>
       </c>
     </row>
   </sheetData>
